--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>927113.558545655</v>
+        <v>925225.9770292534</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>115.2889731870054</v>
+        <v>92.13881552133064</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>11.00429467105817</v>
       </c>
       <c r="V4" t="n">
-        <v>94.94259091990844</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>23.19687000335052</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>221.0706685696819</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>4.553842565068688</v>
       </c>
       <c r="W7" t="n">
-        <v>14.48345164522457</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>327.4580453504705</v>
       </c>
       <c r="G8" t="n">
-        <v>207.9481066377164</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6.79138903482001</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>19.85734617663235</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>180.6645312963696</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>207.0920728594996</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>134.0220867492598</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>169.7438101404421</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>207.9577844203814</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>143.3158222056512</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>96.84207451769328</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>176.8688121773844</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>72.61518445926272</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.85017494300083</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>135.8803936258645</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533799</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700704</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965496</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437385</v>
+        <v>42.20569823125466</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348202</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897873</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357146</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523541</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550459</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298319</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700199</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080336</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>150.442525901136</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235374</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.2891578932899</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463227</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1726.57441852865</v>
+        <v>864.0386341629926</v>
       </c>
       <c r="C2" t="n">
-        <v>1357.611901588238</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="D2" t="n">
-        <v>999.3462029814875</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="E2" t="n">
-        <v>999.3462029814875</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="F2" t="n">
-        <v>588.36029819188</v>
+        <v>488.1306164733774</v>
       </c>
       <c r="G2" t="n">
-        <v>170.3964900900669</v>
+        <v>474.2072124119683</v>
       </c>
       <c r="H2" t="n">
-        <v>170.3964900900669</v>
+        <v>147.0124924479712</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>2113.174258592771</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>2113.174258592771</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,13 +4425,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V4" t="n">
-        <v>632.2273772166277</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W4" t="n">
-        <v>632.2273772166277</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>404.2378263186104</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1602.48111343776</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1233.518596497348</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1233.518596497348</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1233.518596497348</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>822.5326917077409</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>404.5688836059278</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>77.37416364193064</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.620445413572</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y5" t="n">
-        <v>1602.48111343776</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4744,25 +4744,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628418</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628418</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V7" t="n">
-        <v>68.57273095695493</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2268.654643287636</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="C8" t="n">
-        <v>1899.692126347224</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="D8" t="n">
-        <v>1541.426427740474</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="E8" t="n">
-        <v>1155.638175142229</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="F8" t="n">
-        <v>744.6522703526218</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.654643287636</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>229.739153672332</v>
       </c>
       <c r="C10" t="n">
-        <v>507.3364050629041</v>
+        <v>60.80297074442507</v>
       </c>
       <c r="D10" t="n">
-        <v>357.2197656505683</v>
+        <v>60.80297074442507</v>
       </c>
       <c r="E10" t="n">
-        <v>357.2197656505683</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>210.329818152658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>229.739153672332</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>229.739153672332</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>229.739153672332</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>229.739153672332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>892.7214197110717</v>
+        <v>755.1831334811259</v>
       </c>
       <c r="W13" t="n">
-        <v>892.7214197110717</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>892.7214197110717</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,25 +5276,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.620415272182</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="W16" t="n">
-        <v>874.2032452352215</v>
+        <v>496.6650364395579</v>
       </c>
       <c r="X16" t="n">
-        <v>874.2032452352215</v>
+        <v>268.6754855415405</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.2032452352215</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,16 +5498,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5522,7 +5522,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V19" t="n">
-        <v>999.7292636700652</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W19" t="n">
-        <v>710.3120936331045</v>
+        <v>241.9805482336709</v>
       </c>
       <c r="X19" t="n">
-        <v>710.3120936331045</v>
+        <v>241.9805482336709</v>
       </c>
       <c r="Y19" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5750,7 +5750,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5835,16 +5835,16 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>195.0373687508851</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>195.0373687508851</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>195.0373687508851</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>195.0373687508851</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>195.0373687508851</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>195.0373687508851</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V22" t="n">
-        <v>933.2366688293932</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W22" t="n">
-        <v>643.8194987924326</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X22" t="n">
-        <v>415.8299478944152</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>195.0373687508851</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6069,22 +6069,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>391.6040140015125</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>638.3691419079765</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>468.5954956259874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>468.5954956259874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>318.4788562136515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>170.5657626312583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6145,52 +6145,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471188</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557901</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347407</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609654</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V25" t="n">
-        <v>986.0022165609654</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W25" t="n">
-        <v>696.5850465240048</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>468.5954956259874</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>468.5954956259874</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6215,25 +6215,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,13 +6242,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011508</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>416.1184791449341</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6464,46 +6464,46 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>658.722591120501</v>
+        <v>439.5324299542179</v>
       </c>
       <c r="C31" t="n">
-        <v>545.5472734739651</v>
+        <v>326.3571123076819</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430005</v>
+        <v>232.001338176717</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430005</v>
+        <v>139.8491098756946</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264611</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276528</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569673</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864676</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933508</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667518</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962064</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286026</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021649</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899273</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167073</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662003</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1335.260356662003</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1101.604051906413</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>949.6419045315286</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>784.6101906693696</v>
+        <v>565.4200295030869</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6689,19 +6689,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6713,16 +6713,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108339</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229681</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506735</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083215</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504522</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103138</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982983</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010325</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6938,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926337</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>846.9127704725952</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.344147222968</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506734</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083214</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504521</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,19 +7160,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7190,13 +7190,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>474.7746905116418</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>721.5398184181058</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506723</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7391,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7491,25 +7491,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.848946864969</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,19 +7631,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823789</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>391.6040140015125</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,10 +8544,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814716</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>41.75994765618367</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>213.2603911806631</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>73.64859338270691</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814716</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>43.65987261462533</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,25 +9717,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,25 +10188,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>213.2603911806631</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>188.8856946302409</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>5.100663089359927</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>62.79465928983205</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>96.03744927814705</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,28 +11139,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>306.1147370139962</v>
+        <v>297.3877236703352</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>104.874910276575</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>71.47311202745837</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>118.1155565745682</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>48.84084321165267</v>
       </c>
     </row>
     <row r="17">
@@ -23893,16 +23893,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>44.17985890344664</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644362</v>
       </c>
     </row>
     <row r="20">
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>52.07175384984286</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>75.26883114644363</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>72.80586356366858</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.2874683808272</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338582</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>82.70425972623033</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801177</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.0120931631195</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571491</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952706</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>20.06387285934373</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>7.247535904753022e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-8.262279876946173e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>998959.4632405671</v>
+        <v>998959.4632405672</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>998959.4632405671</v>
+        <v>998959.4632405672</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>998959.4632405671</v>
+        <v>998959.4632405672</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>998959.4632405674</v>
+        <v>998959.4632405672</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1038442.157259471</v>
+        <v>1038442.15725947</v>
       </c>
     </row>
     <row r="12">
@@ -26317,19 +26317,19 @@
         <v>410520.8849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321414</v>
       </c>
       <c r="E2" t="n">
-        <v>391029.0597377087</v>
+        <v>391029.0597377089</v>
       </c>
       <c r="F2" t="n">
         <v>391029.0597377088</v>
       </c>
       <c r="G2" t="n">
-        <v>391029.0597377088</v>
+        <v>391029.0597377089</v>
       </c>
       <c r="H2" t="n">
-        <v>391029.0597377088</v>
+        <v>391029.0597377089</v>
       </c>
       <c r="I2" t="n">
         <v>391029.0597377088</v>
@@ -26338,19 +26338,19 @@
         <v>391029.0597377088</v>
       </c>
       <c r="K2" t="n">
-        <v>406822.1373452705</v>
+        <v>406822.1373452706</v>
       </c>
       <c r="L2" t="n">
+        <v>410520.8849321423</v>
+      </c>
+      <c r="M2" t="n">
         <v>410520.8849321422</v>
       </c>
-      <c r="M2" t="n">
-        <v>410520.8849321421</v>
-      </c>
       <c r="N2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.8849321423</v>
       </c>
       <c r="O2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.8849321423</v>
       </c>
       <c r="P2" t="n">
         <v>410520.8849321422</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284591</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086659</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284595</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687073</v>
       </c>
-      <c r="G4" t="n">
-        <v>22174.60758687071</v>
-      </c>
       <c r="H4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106735</v>
+        <v>40339.23010106727</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.39482819122</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44593.39482819121</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="O4" t="n">
+        <v>44593.39482819121</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44593.39482819119</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.39482819122</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819119</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26491,22 +26491,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26525,43 +26525,43 @@
         <v>162028.9390822078</v>
       </c>
       <c r="D6" t="n">
-        <v>162028.9390822076</v>
+        <v>162028.9390822075</v>
       </c>
       <c r="E6" t="n">
-        <v>-248292.9102747748</v>
+        <v>-248390.3694007467</v>
       </c>
       <c r="F6" t="n">
-        <v>276867.1262021214</v>
+        <v>276769.6670761493</v>
       </c>
       <c r="G6" t="n">
-        <v>276867.1262021215</v>
+        <v>276769.6670761494</v>
       </c>
       <c r="H6" t="n">
-        <v>276867.1262021214</v>
+        <v>276769.6670761494</v>
       </c>
       <c r="I6" t="n">
-        <v>276867.1262021216</v>
+        <v>276769.6670761493</v>
       </c>
       <c r="J6" t="n">
-        <v>100443.9070095283</v>
+        <v>100346.4478835563</v>
       </c>
       <c r="K6" t="n">
-        <v>225692.0934111344</v>
+        <v>225673.5996732005</v>
       </c>
       <c r="L6" t="n">
-        <v>257869.477483059</v>
+        <v>257869.4774830588</v>
       </c>
       <c r="M6" t="n">
         <v>133411.3690500883</v>
       </c>
       <c r="N6" t="n">
-        <v>268212.3842839255</v>
+        <v>268212.3842839257</v>
       </c>
       <c r="O6" t="n">
-        <v>268212.3842839256</v>
+        <v>268212.3842839257</v>
       </c>
       <c r="P6" t="n">
-        <v>224049.7789810797</v>
+        <v>224049.7789810799</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108323</v>
+        <v>12.92863350108361</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855743</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>36.64234305785584</v>
+        <v>59.79250072353061</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>275.2775795709196</v>
       </c>
       <c r="V4" t="n">
-        <v>157.1950524039196</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>128.7344462415107</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>148.6604321087871</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>247.5838007587593</v>
       </c>
       <c r="W7" t="n">
-        <v>272.0395466913664</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>79.41800039124092</v>
       </c>
       <c r="G8" t="n">
-        <v>205.8360633830786</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>139.6425736117492</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>147.4524560824186</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28330,16 +28330,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341714</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>324.1236498972918</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>495.6240934217712</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>384.0729704331731</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36130,7 +36130,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36203,7 +36203,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341714</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36212,10 +36212,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>326.0235748557334</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36437,25 +36437,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>255.4503488645142</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>448.880785543134</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556545</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206028</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349808</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>495.6240934217712</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412292</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075299</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491602</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043214</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>471.2493968713491</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>254.3583680453842</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>213.3700978777713</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,19 +37631,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>429.2320226761599</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37795,7 +37795,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37859,28 +37859,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>639.309310412009</v>
+        <v>630.582297068348</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>255.4503488645142</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38111,10 +38111,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
